--- a/Address_Extraction_Classifier/testdata.xlsx
+++ b/Address_Extraction_Classifier/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prem Shah\Desktop\Washingtion State Evictions Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prem Shah\Documents\GitHub\MachineLearning-Tidbits\Address_Extraction_Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A75F9DD-04B8-4B0B-B5E6-B3DC9D1849BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF921C-5459-4A3C-8000-B162885CAB07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C47CD6F9-54E8-4765-8F7D-B1455919AB75}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="165">
   <si>
     <t>FILED</t>
   </si>
@@ -160,6 +160,375 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>13788 4/6/2684 88122</t>
+  </si>
+  <si>
+    <t>This is notice of a lawsuit to evict you from the property which you are renting. Your landlord is</t>
+  </si>
+  <si>
+    <t>asking the court to terminate your tenancy, direct the sheriff to remove you and your belongings from the</t>
+  </si>
+  <si>
+    <t>property, enter a money judgment against you for unpaid rent and/or damages for your use of the property, and</t>
+  </si>
+  <si>
+    <t>for court costs and attorneys’ fees.</t>
+  </si>
+  <si>
+    <t>If you want to defend yourself in this lawsuit, you must respond to the eviction complaint in writing</t>
+  </si>
+  <si>
+    <t>on or before the deadline stated above. You must respond in writing even if no case number has been assigned</t>
+  </si>
+  <si>
+    <t>by the court yet.</t>
+  </si>
+  <si>
+    <t>‘ You can respond to the complaint in writing by delivering a copy of a notice of appearance or answer</t>
+  </si>
+  <si>
+    <t>to your landlord's attorney (or your landlord if there is no attorney) to be received no later than the deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>stated above.</t>
+  </si>
+  <si>
+    <t>The notice of appearance or answer must include the name of this case (plaintiff and defendant(s)),</t>
+  </si>
+  <si>
+    <t>your name, the street address where further legal papers may be sent, your telephone number (if any), and your</t>
+  </si>
+  <si>
+    <t>signature.</t>
+  </si>
+  <si>
+    <t>If there is a number on the upper right side of the eviction summons and complaint, you must also file</t>
+  </si>
+  <si>
+    <t>your original notice of appearance or answer with the court clerk by the deadline for your written response.</t>
+  </si>
+  <si>
+    <t>You may demand that the plaintiff file this lawsuit with the court. If you do so, the demand must be in</t>
+  </si>
+  <si>
+    <t>writing and must be served upon the person signing the summons. Within fourteen days after you serve the</t>
+  </si>
+  <si>
+    <t>demand, the plaintiff must file this lawsuit with the court, or the service on you of this summons and complaint</t>
+  </si>
+  <si>
+    <t>will be void.</t>
+  </si>
+  <si>
+    <t>If you wish to seek the advice of an attomey in this matter, you should do so promptly so that your</t>
+  </si>
+  <si>
+    <t>written response, if any, may be served on time.</t>
+  </si>
+  <si>
+    <t>You may also be instructed in a separate order to appear for a court hearing on your eviction. [f you</t>
+  </si>
+  <si>
+    <t>receive an order to show cause you must personally appear at the hearing on the date indicated in the order to</t>
+  </si>
+  <si>
+    <t>show cause in addition to delivering and filing your notice of appearance or answer by the deadline stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>above.</t>
+  </si>
+  <si>
+    <t>IF YOU DO NOT RESPOND TO THE COMPLAINT IN WRITING BY THE</t>
+  </si>
+  <si>
+    <t>DEADLINE STATED ABOVE YOU WILL LOSE BY DEFAULT. YOUR LANDLORD</t>
+  </si>
+  <si>
+    <t>MAY PROCEED WITH THE LAWSUIT, EVEN IF YOU HAVE MOVED OUT OF THE</t>
+  </si>
+  <si>
+    <t>PROPERTY.</t>
+  </si>
+  <si>
+    <t>The notice of appearance or answer must be delivered to:</t>
+  </si>
+  <si>
+    <t>PUCKETT &amp; REDFORD PLLC</t>
+  </si>
+  <si>
+    <t>DATED: March 25, 2004 By: QO L A ( 2 kp</t>
+  </si>
+  <si>
+    <t>peph D. Puckett/WSBA No. 5323</t>
+  </si>
+  <si>
+    <t>andy Redford/WSBA No. 21529</t>
+  </si>
+  <si>
+    <t>Brian C. Read/WSBA No. 34091</t>
+  </si>
+  <si>
+    <t>Attomeys for Piaintiff</t>
+  </si>
+  <si>
+    <t>SUMMONS- 2 PUCKETT &amp; REDFORD PLLC</t>
+  </si>
+  <si>
+    <t>900 Fourth Avenue, Suite 1400</t>
+  </si>
+  <si>
+    <t>SEATTLE, WASHINGTON 98164</t>
+  </si>
+  <si>
+    <t>TELEPHONE; (206) 386-4800</t>
+  </si>
+  <si>
+    <t>MUTSEP 20 PM 2:28</t>
+  </si>
+  <si>
+    <t>MING COURTY</t>
+  </si>
+  <si>
+    <t>SUPERIOR CGURT CLERK</t>
+  </si>
+  <si>
+    <t>SEATTLE, WA</t>
+  </si>
+  <si>
+    <t>. Court of Washington</t>
+  </si>
+  <si>
+    <t>County ‘of</t>
+  </si>
+  <si>
+    <t>D asl Wl Vin) | av-2-24841 - F684</t>
+  </si>
+  <si>
+    <t>Plaintifi(s), No. Le _</t>
+  </si>
+  <si>
+    <t>COMPLAINT FOR</t>
+  </si>
+  <si>
+    <t>Thine takinaouy Of</t>
+  </si>
+  <si>
+    <t>0 mn nN Dn Wn FP W WN</t>
+  </si>
+  <si>
+    <t>by personal delivery, mailing, or facsimile to the address or facsimile number stated below</t>
+  </si>
+  <si>
+    <t>TO BE RECEIVED NO LATER THAN THE DEADLINE STATED ABOVE. Service</t>
+  </si>
+  <si>
+    <t>by facsimile is complete upon successful transmission to the facsimile number, if any, listed</t>
+  </si>
+  <si>
+    <t>in the summons.</t>
+  </si>
+  <si>
+    <t>The notice of appearance or answer must include the name of this case (plaintiff(s)</t>
+  </si>
+  <si>
+    <t>and defendant(s)), your name, the street address where further legal papers may be sent,</t>
+  </si>
+  <si>
+    <t>your telephone number (if any), and your signature.</t>
+  </si>
+  <si>
+    <t>If there is a number on the upper right side of the eviction summons and complaint,</t>
+  </si>
+  <si>
+    <t>you must also file your original notice of appearance or answer with the court clerk by the</t>
+  </si>
+  <si>
+    <t>deadline for your written response.</t>
+  </si>
+  <si>
+    <t>You may demand that the plaintiff file this lawsuit with the court. If you do so, the</t>
+  </si>
+  <si>
+    <t>demand must be in writing and must be served upon the person signing the summons.</t>
+  </si>
+  <si>
+    <t>Within fourteen days after you serve the demand, the plaintiff must file this lawsuit with</t>
+  </si>
+  <si>
+    <t>the court, or the service on you of this summons and complaint will be void.</t>
+  </si>
+  <si>
+    <t>If you wish to seek the advice of an attorney in this matter, you should do so</t>
+  </si>
+  <si>
+    <t>promptly so that your written response, if any, may be served on time.</t>
+  </si>
+  <si>
+    <t>You may also be instructed in a separate order to appear for a court hearing on your</t>
+  </si>
+  <si>
+    <t>eviction. If you receive an order to show cause you must personally appear at the hearing</t>
+  </si>
+  <si>
+    <t>on the date indicated in the order to show cause IN ADDITION to delivering and filing</t>
+  </si>
+  <si>
+    <t>your notice of appearance or answer by the deadline stated above.</t>
+  </si>
+  <si>
+    <t>Name THE ADMON LAW FIRM, PLLC</t>
+  </si>
+  <si>
+    <t>Street Address 600 1° Ave., Suite 314</t>
+  </si>
+  <si>
+    <t>Seattle, WA 98104</t>
+  </si>
+  <si>
+    <t>Telephone (206) 414-1957</t>
+  </si>
+  <si>
+    <t>Fax (206) 494-0001</t>
+  </si>
+  <si>
+    <t>: Uf</t>
+  </si>
+  <si>
+    <t>/,</t>
+  </si>
+  <si>
+    <t>Moshe (Jeff) Admon, WSBA #50235</t>
+  </si>
+  <si>
+    <t>Dated: October 16, 2017</t>
+  </si>
+  <si>
+    <t>Attorney for Plaintiff</t>
+  </si>
+  <si>
+    <t>SUMMONS - 2 600 1ST AVE, SUITE 314</t>
+  </si>
+  <si>
+    <t>RCW 59.12.070 SEATTLE, WASHINGTON 98104</t>
+  </si>
+  <si>
+    <t>TELEPHONE (206) 414-1957</t>
+  </si>
+  <si>
+    <t>- , FILED</t>
+  </si>
+  <si>
+    <t>j i FE Spohomish County Superior Court</t>
+  </si>
+  <si>
+    <t>tre Sonya Kraski</t>
+  </si>
+  <si>
+    <t>County Clerk</t>
+  </si>
+  <si>
+    <t>2UOOLT 29 PH 2:23 Everett WA</t>
+  </si>
+  <si>
+    <t>uayuuruntgient SaNYA KRA KRASK| 10-2-09145-1</t>
+  </si>
+  <si>
+    <t>wv</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>oO</t>
+  </si>
+  <si>
+    <t>CL14483650 SNOHOMISH Ce Cotas Date Acct. Date ‘Tipe</t>
+  </si>
+  <si>
+    <t>0/29/2010 11/01/2010 1:36 PH</t>
+  </si>
+  <si>
+    <t>Receipt/Iten # Tran-Code  Docket-</t>
+  </si>
+  <si>
+    <t>2010-04-05563/05 1135 $FFR</t>
+  </si>
+  <si>
+    <t>Cashier: LXP</t>
+  </si>
+  <si>
+    <t>Paid By: PUCKETT REDFORD» PLLC</t>
+  </si>
+  <si>
+    <t>Transaction Asount: $75.</t>
+  </si>
+  <si>
+    <t>IN AND FOR THE COUNTY OF SNOHOMISH</t>
+  </si>
+  <si>
+    <t>GRE FULTON'S CROSSING LLC, No. 1 4 3 1</t>
+  </si>
+  <si>
+    <t>Plaintiff, 10 2 0 9</t>
+  </si>
+  <si>
+    <t>EVICTION SUMMONS</t>
+  </si>
+  <si>
+    <t>vs. (Residential)</t>
+  </si>
+  <si>
+    <t>WILLIAM BURGESS</t>
+  </si>
+  <si>
+    <t># 40218.0110</t>
+  </si>
+  <si>
+    <t>4:30 P.M., on November 12, 2010</t>
+  </si>
+  <si>
+    <t>TO THE DEFENDANT(S): WILLIAM BURGESS</t>
+  </si>
+  <si>
+    <t>FULTON’'S CROSSING APARTMENTS</t>
+  </si>
+  <si>
+    <t>120 SE EVERETT MALL WAY, #513</t>
+  </si>
+  <si>
+    <t>Everett, Washington 98208</t>
+  </si>
+  <si>
+    <t>You can respond to the complaint in writing by delivering a copy of a notice of appearance or answer</t>
+  </si>
+  <si>
+    <t>to your landlord's attorney (or your landlord if there is no attorney) by personal delivery, mailing or facsimile to</t>
+  </si>
+  <si>
+    <t>SUMMONS- 1 PUCKETT &amp; REDFORD PLLC</t>
+  </si>
+  <si>
+    <t>901 Fifth Avenue, Suite 800</t>
+  </si>
+  <si>
+    <t>DD OL loiN AL SEATTLE, WASHINGTON 98164</t>
   </si>
 </sst>
 </file>
@@ -511,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C71367-6820-40BD-B63B-D2D282006EC5}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,8 +1143,789 @@
         <v>40</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="e">
+        <f>- ADMON LAW FIRM</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A51" xr:uid="{D183A7C9-4FC1-40D4-B4C5-408FEE2B1AE3}"/>
+  <autoFilter ref="A1:A127" xr:uid="{C6B87BF4-C276-48E0-8E98-B3F41A772C85}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>